--- a/flask/data/email_subscriptions.xlsx
+++ b/flask/data/email_subscriptions.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Value</t>
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+  </si>
+  <si>
+    <t>2024-10-02 15:16:26</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +397,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/flask/data/email_subscriptions.xlsx
+++ b/flask/data/email_subscriptions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Value</t>
   </si>
@@ -25,7 +25,19 @@
     <t>abc@abc.com</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test hello</t>
+  </si>
+  <si>
     <t>2024-10-02 15:16:26</t>
+  </si>
+  <si>
+    <t>2024-10-05 09:50:46</t>
+  </si>
+  <si>
+    <t>2024-10-05 10:30:25</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +414,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
